--- a/biology/Zoologie/Capiuterilepis_naja/Capiuterilepis_naja.xlsx
+++ b/biology/Zoologie/Capiuterilepis_naja/Capiuterilepis_naja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capiuterilepis naja est une espèce de cestodes de la famille des Hymenolepididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Capiuterilepis naja a été initialement créée par Félix Dujardin sous le protonyme de Taenia naja[2] et sur la base de spécimens provenant de quatre sittelles torchepots et d'un grimpereau des bois provenant des environs de Rennes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Capiuterilepis naja a été initialement créée par Félix Dujardin sous le protonyme de Taenia naja et sur la base de spécimens provenant de quatre sittelles torchepots et d'un grimpereau des bois provenant des environs de Rennes.
 Cette espèce n'est pas traitée dans la classification de Hallan, où le genre Capiuterilepis est considéré comme synonyme de Microsomacanthus.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description, Dujardin indique que la longueur de cette espèce est de 10 à 30 mm pour une largeur de 0,7 à 1 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description, Dujardin indique que la longueur de cette espèce est de 10 à 30 mm pour une largeur de 0,7 à 1 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Félix Dujardin, Histoire naturelle des helminthes ou vers intestinaux, Paris, Librairie encyclopédique de Roret, 1845 (OCLC 7987902, DOI 10.5962/BHL.TITLE.10123, lire en ligne)</t>
         </is>
